--- a/results/phase1/AT_densenet+cbam_exp/config_AT_cr_180225.xlsx
+++ b/results/phase1/AT_densenet+cbam_exp/config_AT_cr_180225.xlsx
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B10" s="8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1" s="9">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="B11" s="8" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1" s="9">
@@ -3877,7 +3877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
@@ -5112,58 +5112,628 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" ht="15" customHeight="1" s="9">
+      <c r="A22" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>DenseNet201</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="8" t="n">
         <v>0.00437838351354003</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="8" t="n">
         <v>0.999</v>
       </c>
-      <c r="F22" t="n">
-        <v>0.1134485378861427</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="F22" s="8" t="n">
+        <v>0.113448537886143</v>
+      </c>
+      <c r="G22" s="8" t="n">
         <v>0.968</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22" s="8" t="n">
         <v>0.978</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" s="8" t="n">
         <v>0.968</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22" s="8" t="n">
         <v>0.967</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22" s="8" t="n">
         <v>0.968</v>
       </c>
-      <c r="L22" s="14" t="n">
+      <c r="L22" s="12" t="n">
         <v>45709.35628472222</v>
       </c>
-      <c r="M22" s="14" t="n">
+      <c r="M22" s="12" t="n">
         <v>45709.45621527778</v>
       </c>
-      <c r="N22" s="15" t="n">
+      <c r="N22" s="13" t="n">
         <v>0.09993055555555555</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P22" s="8" t="n">
         <v>34</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" s="8" t="inlineStr">
+        <is>
+          <t>AT_DenseNet_CBAM_K10_xlsx.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="9">
+      <c r="A23" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>DenseNet201</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" s="8" t="n">
+        <v>0.012357572093606</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="F23" s="8" t="n">
+        <v>0.112079992890358</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="H23" s="8" t="n">
+        <v>0.983</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="J23" s="8" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="K23" s="8" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="L23" s="12" t="n">
+        <v>45709.83989583333</v>
+      </c>
+      <c r="M23" s="12" t="n">
+        <v>45709.89861111111</v>
+      </c>
+      <c r="N23" s="13" t="n">
+        <v>0.05871527777777778</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="8" t="inlineStr">
+        <is>
+          <t>AT_DenseNet_CBAM_K10_xlsx.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1" s="9">
+      <c r="A24" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" s="8" t="inlineStr">
+        <is>
+          <t>DenseNet201</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" s="8" t="n">
+        <v>0.00493602128699422</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="F24" s="8" t="n">
+        <v>0.0987777262926102</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="H24" s="8" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="J24" s="8" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="K24" s="8" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="L24" s="12" t="n">
+        <v>45710.16019675926</v>
+      </c>
+      <c r="M24" s="12" t="n">
+        <v>45710.26280092593</v>
+      </c>
+      <c r="N24" s="13" t="n">
+        <v>0.1026041666666667</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q24" s="8" t="inlineStr">
+        <is>
+          <t>AT_DenseNet_CBAM_K10_xlsx.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" s="9">
+      <c r="A25" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" s="8" t="inlineStr">
+        <is>
+          <t>DenseNet201</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" s="8" t="n">
+        <v>0.00281907035969198</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="F25" s="8" t="n">
+        <v>0.0802192389965057</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="H25" s="8" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="J25" s="8" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="K25" s="8" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="L25" s="12" t="n">
+        <v>45710.26325231481</v>
+      </c>
+      <c r="M25" s="12" t="n">
+        <v>45710.43299768519</v>
+      </c>
+      <c r="N25" s="13" t="n">
+        <v>0.1697453703703704</v>
+      </c>
+      <c r="O25" s="8" t="n">
+        <v>48</v>
+      </c>
+      <c r="P25" s="8" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q25" s="8" t="inlineStr">
+        <is>
+          <t>AT_DenseNet_CBAM_K10_xlsx.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1" s="9">
+      <c r="A26" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" s="8" t="inlineStr">
+        <is>
+          <t>DenseNet201</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" s="8" t="n">
+        <v>0.00259275850839913</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="F26" s="8" t="n">
+        <v>0.0465665645897389</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="H26" s="8" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="J26" s="8" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="K26" s="8" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="L26" s="12" t="n">
+        <v>45710.43344907407</v>
+      </c>
+      <c r="M26" s="12" t="n">
+        <v>45710.57685185185</v>
+      </c>
+      <c r="N26" s="13" t="n">
+        <v>0.1434027777777778</v>
+      </c>
+      <c r="O26" s="8" t="n">
+        <v>39</v>
+      </c>
+      <c r="P26" s="8" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q26" s="8" t="inlineStr">
+        <is>
+          <t>AT_DenseNet_CBAM_K10_xlsx.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" s="9">
+      <c r="A27" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" s="8" t="inlineStr">
+        <is>
+          <t>DenseNet201</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" s="8" t="n">
+        <v>0.00401114113628864</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="F27" s="8" t="n">
+        <v>0.101213559508324</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="H27" s="8" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="J27" s="8" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="K27" s="8" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="L27" s="12" t="n">
+        <v>45710.57733796296</v>
+      </c>
+      <c r="M27" s="12" t="n">
+        <v>45710.72697916667</v>
+      </c>
+      <c r="N27" s="13" t="n">
+        <v>0.1496412037037037</v>
+      </c>
+      <c r="O27" s="8" t="n">
+        <v>41</v>
+      </c>
+      <c r="P27" s="8" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q27" s="8" t="inlineStr">
+        <is>
+          <t>AT_DenseNet_CBAM_K10_xlsx.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1" s="9">
+      <c r="A28" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="8" t="inlineStr">
+        <is>
+          <t>DenseNet201</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D28" s="8" t="n">
+        <v>0.00345568335615099</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="F28" s="8" t="n">
+        <v>0.244844138622284</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H28" s="8" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="J28" s="8" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K28" s="8" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="L28" s="12" t="n">
+        <v>45710.72746527778</v>
+      </c>
+      <c r="M28" s="12" t="n">
+        <v>45710.83611111111</v>
+      </c>
+      <c r="N28" s="13" t="n">
+        <v>0.1086458333333333</v>
+      </c>
+      <c r="O28" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="P28" s="8" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q28" s="8" t="inlineStr">
+        <is>
+          <t>AT_DenseNet_CBAM_K10_xlsx.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1" s="9">
+      <c r="A29" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" s="8" t="inlineStr">
+        <is>
+          <t>DenseNet201</t>
+        </is>
+      </c>
+      <c r="C29" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D29" s="8" t="n">
+        <v>0.00321848597377539</v>
+      </c>
+      <c r="E29" s="8" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="F29" s="8" t="n">
+        <v>0.139441102743149</v>
+      </c>
+      <c r="G29" s="8" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="H29" s="8" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="I29" s="8" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="J29" s="8" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="K29" s="8" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="L29" s="12" t="n">
+        <v>45710.83662037037</v>
+      </c>
+      <c r="M29" s="12" t="n">
+        <v>45710.95983796296</v>
+      </c>
+      <c r="N29" s="13" t="n">
+        <v>0.1232175925925926</v>
+      </c>
+      <c r="O29" s="8" t="n">
+        <v>32</v>
+      </c>
+      <c r="P29" s="8" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q29" s="8" t="inlineStr">
+        <is>
+          <t>AT_DenseNet_CBAM_K10_xlsx.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1" s="9">
+      <c r="A30" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B30" s="8" t="inlineStr">
+        <is>
+          <t>DenseNet201</t>
+        </is>
+      </c>
+      <c r="C30" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D30" s="8" t="n">
+        <v>0.0077115697786212</v>
+      </c>
+      <c r="E30" s="8" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="F30" s="8" t="n">
+        <v>0.0362361595034599</v>
+      </c>
+      <c r="G30" s="8" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="H30" s="8" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I30" s="8" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="J30" s="8" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="K30" s="8" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="L30" s="12" t="n">
+        <v>45710.9603587963</v>
+      </c>
+      <c r="M30" s="12" t="n">
+        <v>45711.02221064815</v>
+      </c>
+      <c r="N30" s="13" t="n">
+        <v>0.06185185185185185</v>
+      </c>
+      <c r="O30" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="P30" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q30" s="8" t="inlineStr">
+        <is>
+          <t>AT_DenseNet_CBAM_K10_xlsx.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" s="8" t="inlineStr">
+        <is>
+          <t>DenseNet201</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D31" s="8" t="n">
+        <v>0.006480092648416758</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="F31" s="8" t="n">
+        <v>0.01997705176472664</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="H31" s="8" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="J31" s="8" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="K31" s="8" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="L31" s="14" t="n">
+        <v>45711.14954861111</v>
+      </c>
+      <c r="M31" s="14" t="n">
+        <v>45711.24861111111</v>
+      </c>
+      <c r="N31" s="15" t="n">
+        <v>0.0990625</v>
+      </c>
+      <c r="O31" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="P31" s="8" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q31" s="8" t="inlineStr">
+        <is>
+          <t>AT_DenseNet_CBAM_K10_xlsx.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DenseNet201</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>10</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.01489793043583632</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.1590239256620407</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="L32" s="14" t="n">
+        <v>45711.24905092592</v>
+      </c>
+      <c r="M32" s="14" t="n">
+        <v>45711.31026620371</v>
+      </c>
+      <c r="N32" s="15" t="n">
+        <v>0.06121527777777778</v>
+      </c>
+      <c r="O32" t="n">
+        <v>11</v>
+      </c>
+      <c r="P32" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q32" t="inlineStr">
         <is>
           <t>AT_DenseNet_CBAM_K10_xlsx.py</t>
         </is>
